--- a/cta_L_stops_new.xlsx
+++ b/cta_L_stops_new.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="-10980" windowWidth="26320" windowHeight="17360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="29840" yWindow="-10000" windowWidth="23900" windowHeight="17360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cta_L_stops_new" sheetId="1" r:id="rId1"/>
-    <sheet name="orange" sheetId="6" r:id="rId2"/>
-    <sheet name="green" sheetId="5" r:id="rId3"/>
-    <sheet name="red" sheetId="2" r:id="rId4"/>
-    <sheet name="red (2)" sheetId="3" r:id="rId5"/>
-    <sheet name="blue" sheetId="4" r:id="rId6"/>
+    <sheet name="yellow" sheetId="9" r:id="rId2"/>
+    <sheet name="purple" sheetId="8" r:id="rId3"/>
+    <sheet name="brown" sheetId="7" r:id="rId4"/>
+    <sheet name="orange" sheetId="6" r:id="rId5"/>
+    <sheet name="green" sheetId="5" r:id="rId6"/>
+    <sheet name="red" sheetId="2" r:id="rId7"/>
+    <sheet name="red (2)" sheetId="3" r:id="rId8"/>
+    <sheet name="blue" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cta_L_stops_new!$D$1:$Q$299</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="735">
   <si>
     <t>STOP_ID</t>
   </si>
@@ -2225,6 +2228,21 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>custom list</t>
+  </si>
+  <si>
+    <t>custom output via template</t>
+  </si>
+  <si>
+    <t>http://www.convertcsv.com/csv-to-json.htm</t>
+  </si>
+  <si>
+    <t>South Blvd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {h4}: {</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2599,7 @@
   <dimension ref="A1:Q299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E294"/>
+      <selection activeCell="E233" sqref="A1:E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2751,7 +2769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4023,7 +4041,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4659,7 +4677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -7309,7 +7327,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -8581,7 +8599,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>282</v>
       </c>
@@ -8634,7 +8652,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -10012,7 +10030,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>342</v>
       </c>
@@ -10118,7 +10136,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -10542,7 +10560,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>365</v>
       </c>
@@ -10754,7 +10772,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>375</v>
       </c>
@@ -10807,7 +10825,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>375</v>
       </c>
@@ -11814,7 +11832,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>419</v>
       </c>
@@ -11867,7 +11885,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -12980,7 +12998,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>469</v>
       </c>
@@ -13669,7 +13687,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>504</v>
       </c>
@@ -13722,7 +13740,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>504</v>
       </c>
@@ -14835,7 +14853,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>556</v>
       </c>
@@ -14888,7 +14906,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>556</v>
       </c>
@@ -15312,7 +15330,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>576</v>
       </c>
@@ -15365,7 +15383,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>576</v>
       </c>
@@ -15683,7 +15701,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>592</v>
       </c>
@@ -16107,7 +16125,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>612</v>
       </c>
@@ -16160,7 +16178,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -17114,7 +17132,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>652</v>
       </c>
@@ -17538,7 +17556,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>672</v>
       </c>
@@ -17591,7 +17609,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>677</v>
       </c>
@@ -18068,7 +18086,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -18121,7 +18139,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>687</v>
       </c>
@@ -18441,7 +18459,7 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:Q299">
-    <filterColumn colId="12">
+    <filterColumn colId="10">
       <filters>
         <filter val="TRUE"/>
       </filters>
@@ -18453,10 +18471,1984 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2">
+        <v>40140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>30026</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3">
+        <v>40140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>30027</v>
+      </c>
+      <c r="E3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4">
+        <v>41680</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>30298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>555</v>
+      </c>
+      <c r="I4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5">
+        <v>41680</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>30297</v>
+      </c>
+      <c r="E5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6">
+        <v>40900</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>30176</v>
+      </c>
+      <c r="E6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7">
+        <v>40900</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>30175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2">
+        <v>41050</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>30203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J2" t="s">
+        <v>730</v>
+      </c>
+      <c r="M2" t="s">
+        <v>731</v>
+      </c>
+      <c r="P2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3">
+        <v>41050</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>30204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>41250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>30242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="s">
+        <v>479</v>
+      </c>
+      <c r="M4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>41250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>30241</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6">
+        <v>40400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>30079</v>
+      </c>
+      <c r="E6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" t="s">
+        <v>542</v>
+      </c>
+      <c r="M6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7">
+        <v>40400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>30078</v>
+      </c>
+      <c r="E7" t="s">
+        <v>545</v>
+      </c>
+      <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>40520</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>30101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <v>40520</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>30102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10">
+        <v>40050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>30010</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" t="s">
+        <v>494</v>
+      </c>
+      <c r="M10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11">
+        <v>40050</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>30011</v>
+      </c>
+      <c r="E11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12">
+        <v>40690</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>30133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13">
+        <v>40690</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>30134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14">
+        <v>40270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>30052</v>
+      </c>
+      <c r="E14" t="s">
+        <v>493</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15">
+        <v>40270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>30053</v>
+      </c>
+      <c r="E15" t="s">
+        <v>497</v>
+      </c>
+      <c r="J15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16">
+        <v>40840</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>30163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>636</v>
+      </c>
+      <c r="J16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>733</v>
+      </c>
+      <c r="B17">
+        <v>40840</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>30164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>640</v>
+      </c>
+      <c r="J17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18">
+        <v>40900</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>30176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19">
+        <v>40900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>30175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="J19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>706</v>
+      </c>
+      <c r="B20">
+        <v>40540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>30106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>705</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>706</v>
+      </c>
+      <c r="B21">
+        <v>40540</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>30105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>709</v>
+      </c>
+      <c r="J21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>41320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>30258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23">
+        <v>41320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>30257</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>682</v>
+      </c>
+      <c r="B24">
+        <v>41210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>30231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>681</v>
+      </c>
+      <c r="J24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>682</v>
+      </c>
+      <c r="B25">
+        <v>41210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>30232</v>
+      </c>
+      <c r="E25" t="s">
+        <v>685</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26">
+        <v>40530</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>30103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27">
+        <v>40530</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>30104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28">
+        <v>41220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>30236</v>
+      </c>
+      <c r="E28" t="s">
+        <v>315</v>
+      </c>
+      <c r="J28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29">
+        <v>41220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>30235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>316</v>
+      </c>
+      <c r="J29" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>40660</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>30128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>40660</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32">
+        <v>40800</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>30155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33">
+        <v>40800</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>30156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>40710</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>30138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>40710</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>30137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36">
+        <v>40460</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>30091</v>
+      </c>
+      <c r="E36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37">
+        <v>40460</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>30090</v>
+      </c>
+      <c r="E37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38">
+        <v>40380</v>
+      </c>
+      <c r="C38" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38">
+        <v>30074</v>
+      </c>
+      <c r="E38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>652</v>
+      </c>
+      <c r="B39">
+        <v>40260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>729</v>
+      </c>
+      <c r="D39">
+        <v>30050</v>
+      </c>
+      <c r="E39" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40">
+        <v>41700</v>
+      </c>
+      <c r="C40" t="s">
+        <v>729</v>
+      </c>
+      <c r="D40">
+        <v>30384</v>
+      </c>
+      <c r="E40" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>40680</v>
+      </c>
+      <c r="C41" t="s">
+        <v>729</v>
+      </c>
+      <c r="D41">
+        <v>30132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>728</v>
+      </c>
+      <c r="B42">
+        <v>40850</v>
+      </c>
+      <c r="C42" t="s">
+        <v>729</v>
+      </c>
+      <c r="D42">
+        <v>30166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43">
+        <v>40160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>729</v>
+      </c>
+      <c r="D43">
+        <v>30031</v>
+      </c>
+      <c r="E43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>592</v>
+      </c>
+      <c r="B44">
+        <v>40040</v>
+      </c>
+      <c r="C44" t="s">
+        <v>729</v>
+      </c>
+      <c r="D44">
+        <v>30007</v>
+      </c>
+      <c r="E44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>677</v>
+      </c>
+      <c r="B45">
+        <v>40730</v>
+      </c>
+      <c r="C45" t="s">
+        <v>729</v>
+      </c>
+      <c r="D45">
+        <v>30141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E45">
+    <sortCondition ref="A2:A45" customList="Linden,Central,Noyes,Foster,Davis,Dempster,Main,South Blvd,Howard,Wilson,Belmont,Wellington,Diversey,Fullerton,Armitage,Sedgwick,Chicago,Merchandise Mart,Washington/Wells,Quincy/Wells,LaSalle/Van Buren,Harold Washington Library,Adams"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2">
+        <v>41290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>30249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" t="s">
+        <v>730</v>
+      </c>
+      <c r="N2" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3">
+        <v>41290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>30250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4">
+        <v>41180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>30226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>439</v>
+      </c>
+      <c r="N4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5">
+        <v>41180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>30225</v>
+      </c>
+      <c r="E5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" t="s">
+        <v>419</v>
+      </c>
+      <c r="N5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6">
+        <v>40870</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>30168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7">
+        <v>40870</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>30167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J7" t="s">
+        <v>607</v>
+      </c>
+      <c r="N7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8">
+        <v>41010</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>30196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>687</v>
+      </c>
+      <c r="N8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9">
+        <v>41010</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>30195</v>
+      </c>
+      <c r="E9" t="s">
+        <v>610</v>
+      </c>
+      <c r="J9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B10">
+        <v>41480</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>30284</v>
+      </c>
+      <c r="E10" t="s">
+        <v>690</v>
+      </c>
+      <c r="J10" t="s">
+        <v>518</v>
+      </c>
+      <c r="N10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B11">
+        <v>41480</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>30283</v>
+      </c>
+      <c r="E11" t="s">
+        <v>693</v>
+      </c>
+      <c r="J11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12">
+        <v>40090</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>30019</v>
+      </c>
+      <c r="E12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13">
+        <v>40090</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>30018</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14">
+        <v>41500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>30287</v>
+      </c>
+      <c r="E14" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15">
+        <v>41500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>30288</v>
+      </c>
+      <c r="E15" t="s">
+        <v>525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16">
+        <v>41460</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>30282</v>
+      </c>
+      <c r="E16" t="s">
+        <v>390</v>
+      </c>
+      <c r="J16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17">
+        <v>41460</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>30281</v>
+      </c>
+      <c r="E17" t="s">
+        <v>398</v>
+      </c>
+      <c r="J17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18">
+        <v>41440</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>30277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19">
+        <v>41440</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>30278</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20">
+        <v>41310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>30254</v>
+      </c>
+      <c r="E20" t="s">
+        <v>565</v>
+      </c>
+      <c r="J20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21">
+        <v>41310</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>30253</v>
+      </c>
+      <c r="E21" t="s">
+        <v>569</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>642</v>
+      </c>
+      <c r="B22">
+        <v>40360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>30070</v>
+      </c>
+      <c r="E22" t="s">
+        <v>641</v>
+      </c>
+      <c r="J22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>642</v>
+      </c>
+      <c r="B23">
+        <v>40360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>30071</v>
+      </c>
+      <c r="E23" t="s">
+        <v>645</v>
+      </c>
+      <c r="J23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24">
+        <v>41320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>30258</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>41320</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>30257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>682</v>
+      </c>
+      <c r="B26">
+        <v>41210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>30231</v>
+      </c>
+      <c r="E26" t="s">
+        <v>681</v>
+      </c>
+      <c r="J26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27">
+        <v>41210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>30232</v>
+      </c>
+      <c r="E27" t="s">
+        <v>685</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28">
+        <v>40530</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>30103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29">
+        <v>40530</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>30104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30">
+        <v>41220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>30236</v>
+      </c>
+      <c r="E30" t="s">
+        <v>315</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>41220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>40660</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>30128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>40660</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>30127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B34">
+        <v>40800</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>30155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35">
+        <v>40800</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>30156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36">
+        <v>40710</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>30138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37">
+        <v>40710</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>30137</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38">
+        <v>40460</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>30091</v>
+      </c>
+      <c r="E38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>499</v>
+      </c>
+      <c r="B39">
+        <v>40460</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>30090</v>
+      </c>
+      <c r="E39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>677</v>
+      </c>
+      <c r="B40">
+        <v>40730</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>30142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>592</v>
+      </c>
+      <c r="B41">
+        <v>40040</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>30008</v>
+      </c>
+      <c r="E41" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>469</v>
+      </c>
+      <c r="B42">
+        <v>40160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>30030</v>
+      </c>
+      <c r="E42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>728</v>
+      </c>
+      <c r="B43">
+        <v>40850</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>30165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>40680</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>30131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>672</v>
+      </c>
+      <c r="B45">
+        <v>41700</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>30383</v>
+      </c>
+      <c r="E45" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>652</v>
+      </c>
+      <c r="B46">
+        <v>40260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>30051</v>
+      </c>
+      <c r="E46" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47">
+        <v>40380</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>30075</v>
+      </c>
+      <c r="E47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F47">
+    <sortCondition ref="A2:A47" customList="Kimball,Kedzie,Francisco,Rockwell,Western,Damen,Montrose,Irving Park,Addison,Paulina,Southport,Belmont,Wellington,Diversey,Fullerton,Armitage,Sedgwick,Chicago,Merchandise Mart,Washington/Wells,Quincy/Wells,LaSalle/Van Buren,Harold Wa"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18464,7 +20456,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>711</v>
       </c>
@@ -18481,7 +20473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>504</v>
       </c>
@@ -18498,10 +20490,16 @@
         <v>503</v>
       </c>
       <c r="I2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="L2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -18517,11 +20515,8 @@
       <c r="E3" t="s">
         <v>507</v>
       </c>
-      <c r="I3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -18538,10 +20533,13 @@
         <v>575</v>
       </c>
       <c r="I4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="L4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>576</v>
       </c>
@@ -18558,10 +20556,13 @@
         <v>581</v>
       </c>
       <c r="I5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="L5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>419</v>
       </c>
@@ -18578,10 +20579,13 @@
         <v>418</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="L6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -18598,10 +20602,13 @@
         <v>424</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="L7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -18618,10 +20625,13 @@
         <v>697</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>687</v>
       </c>
@@ -18638,10 +20648,13 @@
         <v>690</v>
       </c>
       <c r="I9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -18658,10 +20671,13 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="L10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -18678,10 +20694,10 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -18698,10 +20714,10 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -18718,10 +20734,10 @@
         <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>342</v>
       </c>
@@ -18738,10 +20754,10 @@
         <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -18758,10 +20774,10 @@
         <v>349</v>
       </c>
       <c r="I15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>612</v>
       </c>
@@ -18778,7 +20794,7 @@
         <v>611</v>
       </c>
       <c r="I16" t="s">
-        <v>672</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -18798,7 +20814,7 @@
         <v>615</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -18817,6 +20833,9 @@
       <c r="E18" t="s">
         <v>368</v>
       </c>
+      <c r="I18" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -18833,6 +20852,9 @@
       </c>
       <c r="E19" t="s">
         <v>472</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -18945,7 +20967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
@@ -19907,12 +21929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21288,7 +23310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
@@ -22758,7 +24780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>

--- a/cta_L_stops_new.xlsx
+++ b/cta_L_stops_new.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="-10000" windowWidth="23900" windowHeight="17360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="29780" yWindow="-10000" windowWidth="23900" windowHeight="17360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cta_L_stops_new" sheetId="1" r:id="rId1"/>
-    <sheet name="yellow" sheetId="9" r:id="rId2"/>
-    <sheet name="purple" sheetId="8" r:id="rId3"/>
-    <sheet name="brown" sheetId="7" r:id="rId4"/>
-    <sheet name="orange" sheetId="6" r:id="rId5"/>
-    <sheet name="green" sheetId="5" r:id="rId6"/>
-    <sheet name="red" sheetId="2" r:id="rId7"/>
-    <sheet name="red (2)" sheetId="3" r:id="rId8"/>
-    <sheet name="blue" sheetId="4" r:id="rId9"/>
+    <sheet name="pink" sheetId="10" r:id="rId2"/>
+    <sheet name="yellow" sheetId="9" r:id="rId3"/>
+    <sheet name="purple" sheetId="8" r:id="rId4"/>
+    <sheet name="brown" sheetId="7" r:id="rId5"/>
+    <sheet name="orange" sheetId="6" r:id="rId6"/>
+    <sheet name="green" sheetId="5" r:id="rId7"/>
+    <sheet name="red" sheetId="2" r:id="rId8"/>
+    <sheet name="red (2)" sheetId="3" r:id="rId9"/>
+    <sheet name="blue" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cta_L_stops_new!$D$1:$Q$299</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="735">
   <si>
     <t>STOP_ID</t>
   </si>
@@ -2595,11 +2596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E233" sqref="A1:E233"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="E284" sqref="A284:E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>139</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>150</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>160</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>188</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>198</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>211</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>229</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>236</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>245</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>255</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>255</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>260</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>260</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>272</v>
       </c>
@@ -8440,7 +8441,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>277</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>287</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>287</v>
       </c>
@@ -8811,7 +8812,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>292</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>292</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>297</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -9023,7 +9024,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>302</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>302</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>307</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>307</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>312</v>
       </c>
@@ -9288,7 +9289,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>312</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>312</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>319</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>319</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>319</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>328</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>328</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>328</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>328</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>337</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>342</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>342</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>342</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>351</v>
       </c>
@@ -10242,7 +10243,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>351</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>351</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>351</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>360</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>360</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>365</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>365</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>370</v>
       </c>
@@ -10666,7 +10667,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>370</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>375</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>375</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>381</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>386</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>386</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>391</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>391</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>391</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>391</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>400</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>400</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>400</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>400</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>409</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>409</v>
       </c>
@@ -11673,7 +11674,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>414</v>
       </c>
@@ -11726,7 +11727,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -11779,7 +11780,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>419</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>419</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>419</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>419</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>419</v>
       </c>
@@ -12097,7 +12098,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>419</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>419</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>434</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>434</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>439</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>439</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>444</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>444</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>449</v>
       </c>
@@ -12574,7 +12575,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>449</v>
       </c>
@@ -12627,7 +12628,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>454</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>454</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>459</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>459</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>464</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>464</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>469</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>469</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>474</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>474</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>479</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>479</v>
       </c>
@@ -13263,7 +13264,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>484</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>484</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>489</v>
       </c>
@@ -13422,7 +13423,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>489</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>494</v>
       </c>
@@ -13528,7 +13529,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>494</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>499</v>
       </c>
@@ -13634,7 +13635,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>499</v>
       </c>
@@ -13687,7 +13688,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>504</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>504</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>509</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>509</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>509</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>509</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>518</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>518</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>518</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>518</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>527</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>527</v>
       </c>
@@ -14323,7 +14324,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>532</v>
       </c>
@@ -14376,7 +14377,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>532</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>537</v>
       </c>
@@ -14482,7 +14483,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>537</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -14588,7 +14589,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>542</v>
       </c>
@@ -14641,7 +14642,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>547</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>547</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>561</v>
       </c>
@@ -15012,7 +15013,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>561</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>566</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>566</v>
       </c>
@@ -15171,7 +15172,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>571</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>571</v>
       </c>
@@ -15277,7 +15278,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>576</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>576</v>
       </c>
@@ -15383,7 +15384,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>576</v>
       </c>
@@ -15436,7 +15437,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>576</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>576</v>
       </c>
@@ -15542,7 +15543,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>576</v>
       </c>
@@ -15595,7 +15596,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>576</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>576</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>592</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>592</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>597</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>597</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>602</v>
       </c>
@@ -15966,7 +15967,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>602</v>
       </c>
@@ -16019,7 +16020,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>607</v>
       </c>
@@ -16072,7 +16073,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>607</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>612</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>612</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>612</v>
       </c>
@@ -16337,7 +16338,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>620</v>
       </c>
@@ -16390,7 +16391,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>620</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>625</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>625</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>630</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>630</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>630</v>
       </c>
@@ -16708,7 +16709,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>630</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>637</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>637</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>642</v>
       </c>
@@ -16920,7 +16921,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>642</v>
       </c>
@@ -16973,7 +16974,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>647</v>
       </c>
@@ -17026,7 +17027,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>647</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>652</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>652</v>
       </c>
@@ -17185,7 +17186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>657</v>
       </c>
@@ -17238,7 +17239,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>657</v>
       </c>
@@ -17291,7 +17292,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>662</v>
       </c>
@@ -17344,7 +17345,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>662</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>667</v>
       </c>
@@ -17450,7 +17451,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>667</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>672</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>672</v>
       </c>
@@ -17609,7 +17610,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>677</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>677</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>682</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>682</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>687</v>
       </c>
@@ -17874,7 +17875,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>687</v>
       </c>
@@ -17927,7 +17928,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>687</v>
       </c>
@@ -17980,7 +17981,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>687</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>687</v>
       </c>
@@ -18086,7 +18087,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>687</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>687</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>687</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>687</v>
       </c>
@@ -18351,7 +18352,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>706</v>
       </c>
@@ -18404,7 +18405,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>706</v>
       </c>
@@ -18458,23 +18459,1792 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q299">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:Q299"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2">
+        <v>40890</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>30172</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3">
+        <v>40890</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>30171</v>
+      </c>
+      <c r="J3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4">
+        <v>40820</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>30159</v>
+      </c>
+      <c r="J4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5">
+        <v>40820</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>30160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>40230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>30044</v>
+      </c>
+      <c r="J6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>40230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>30045</v>
+      </c>
+      <c r="J7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8">
+        <v>40750</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>30146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9">
+        <v>40750</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>30145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10">
+        <v>41280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>30247</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11">
+        <v>41280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>30248</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12">
+        <v>41330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>30260</v>
+      </c>
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13">
+        <v>41330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>30259</v>
+      </c>
+      <c r="J13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14">
+        <v>40550</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>30107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15">
+        <v>40550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>30108</v>
+      </c>
+      <c r="J15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>41240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>30240</v>
+      </c>
+      <c r="J16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>41240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>30239</v>
+      </c>
+      <c r="J17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>40060</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>30013</v>
+      </c>
+      <c r="J18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19">
+        <v>40060</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>30012</v>
+      </c>
+      <c r="J19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20">
+        <v>41020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>30197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21">
+        <v>41020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>30198</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22">
+        <v>40570</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>30111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23">
+        <v>40570</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>30112</v>
+      </c>
+      <c r="J23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>687</v>
+      </c>
+      <c r="B24">
+        <v>40670</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>30129</v>
+      </c>
+      <c r="J24" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B25">
+        <v>40670</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>30130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26">
+        <v>40590</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>30116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <v>40590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>30115</v>
+      </c>
+      <c r="J27" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28">
+        <v>40320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>30062</v>
+      </c>
+      <c r="J28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29">
+        <v>40320</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>30063</v>
+      </c>
+      <c r="J29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>41410</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>30271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <v>41410</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>30272</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32">
+        <v>40490</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>30096</v>
+      </c>
+      <c r="J32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33">
+        <v>40490</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>30095</v>
+      </c>
+      <c r="J33" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34">
+        <v>40380</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>30374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35">
+        <v>40380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>667</v>
+      </c>
+      <c r="B36">
+        <v>40370</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>30073</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>667</v>
+      </c>
+      <c r="B37">
+        <v>40370</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>30072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38">
+        <v>40790</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>30153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39">
+        <v>40790</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>30154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40">
+        <v>40070</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>30014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B41">
+        <v>40070</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>464</v>
+      </c>
+      <c r="B42">
+        <v>41340</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>30262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43">
+        <v>41340</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>30261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <v>40430</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>30085</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45">
+        <v>40430</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>30084</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>662</v>
+      </c>
+      <c r="B46">
+        <v>40350</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>30069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>662</v>
+      </c>
+      <c r="B47">
+        <v>40350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>30068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>597</v>
+      </c>
+      <c r="B48">
+        <v>40470</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49">
+        <v>40470</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50">
+        <v>40810</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>30157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51">
+        <v>40810</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>30158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>687</v>
+      </c>
+      <c r="B52">
+        <v>40220</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>30042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>687</v>
+      </c>
+      <c r="B53">
+        <v>40220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54">
+        <v>40250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>30049</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>434</v>
+      </c>
+      <c r="B55">
+        <v>40250</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>30048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>576</v>
+      </c>
+      <c r="B56">
+        <v>40920</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>576</v>
+      </c>
+      <c r="B57">
+        <v>40920</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>30179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58">
+        <v>40970</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>30187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59">
+        <v>40970</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>30188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60">
+        <v>40010</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61">
+        <v>40010</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>547</v>
+      </c>
+      <c r="B62">
+        <v>40180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>30035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>547</v>
+      </c>
+      <c r="B63">
+        <v>40180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>30034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64">
+        <v>40980</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>30189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65">
+        <v>40980</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>30190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66">
+        <v>40390</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>30077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67">
+        <v>40390</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>30076</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D67">
+    <sortCondition ref="A2:A67" customList="O'Hare,Rosemont,Cumberland,Harlem-O,Jefferson Park,Montrose,Irving Park,Addison,Belmont,Logan Square,California,Western-O,Damen,Division,Chicago,Grand,Clark,Washington,Monroe,Jackson,Lasalle,Clinton,UIC-Halsted,Racine,Illinois Medi"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="A1:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>40580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>30113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>40580</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>30114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4">
+        <v>40420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>30083</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>40420</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>30082</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>40600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>30117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7">
+        <v>40600</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>30118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8">
+        <v>40150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>30028</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9">
+        <v>40150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>30029</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>40780</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>30151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11">
+        <v>40780</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>30152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12">
+        <v>41040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>30202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13">
+        <v>41040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>30201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14">
+        <v>40440</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>30086</v>
+      </c>
+      <c r="E14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <v>40440</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>30087</v>
+      </c>
+      <c r="E15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16">
+        <v>40740</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>30143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17">
+        <v>40740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>30144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18">
+        <v>40210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>30041</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19">
+        <v>40210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>30040</v>
+      </c>
+      <c r="E19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40830</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>30161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>40830</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>30162</v>
+      </c>
+      <c r="E21" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22">
+        <v>41030</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>30200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>368</v>
+      </c>
+      <c r="J22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B23">
+        <v>41030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>30199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>425</v>
+      </c>
+      <c r="J23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>40170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>30033</v>
+      </c>
+      <c r="E24" t="s">
+        <v>418</v>
+      </c>
+      <c r="J24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25">
+        <v>40170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>30032</v>
+      </c>
+      <c r="E25" t="s">
+        <v>448</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26">
+        <v>41510</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>30296</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+      <c r="J26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27">
+        <v>41510</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>30295</v>
+      </c>
+      <c r="E27" t="s">
+        <v>472</v>
+      </c>
+      <c r="J27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28">
+        <v>41160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>30222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>526</v>
+      </c>
+      <c r="J28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29">
+        <v>41160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>30221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>530</v>
+      </c>
+      <c r="J29" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30">
+        <v>40380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>729</v>
+      </c>
+      <c r="D30">
+        <v>30074</v>
+      </c>
+      <c r="E30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>652</v>
+      </c>
+      <c r="B31">
+        <v>40260</v>
+      </c>
+      <c r="C31" t="s">
+        <v>729</v>
+      </c>
+      <c r="D31">
+        <v>30050</v>
+      </c>
+      <c r="E31" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>672</v>
+      </c>
+      <c r="B32">
+        <v>41700</v>
+      </c>
+      <c r="C32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32">
+        <v>30384</v>
+      </c>
+      <c r="E32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33">
+        <v>40680</v>
+      </c>
+      <c r="C33" t="s">
+        <v>729</v>
+      </c>
+      <c r="D33">
+        <v>30132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>728</v>
+      </c>
+      <c r="B34">
+        <v>40850</v>
+      </c>
+      <c r="C34" t="s">
+        <v>729</v>
+      </c>
+      <c r="D34">
+        <v>30166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35">
+        <v>40160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35">
+        <v>30031</v>
+      </c>
+      <c r="E35" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>592</v>
+      </c>
+      <c r="B36">
+        <v>40040</v>
+      </c>
+      <c r="C36" t="s">
+        <v>729</v>
+      </c>
+      <c r="D36">
+        <v>30007</v>
+      </c>
+      <c r="E36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>677</v>
+      </c>
+      <c r="B37">
+        <v>40730</v>
+      </c>
+      <c r="C37" t="s">
+        <v>729</v>
+      </c>
+      <c r="D37">
+        <v>30141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D38">
+    <sortCondition ref="A2:A38" customList="54th/Cermak,Cicero,Kostner,Pulaski,Central Park,Kedzie,Kedzie,Western,Damen,18th,Polk,Ashland,Morgan,Clinton,Clark/Lake,State/Lake,Washington/Wabash,Adams/Wabash,Harold Washington Library,LaSalle/Van Buren,Quincy/Wells,Washington/Well"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18624,7 +20394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -19515,7 +21285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
@@ -20443,7 +22213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -20967,7 +22737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
@@ -21929,7 +23699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
@@ -23310,7 +25080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
@@ -24778,1063 +26548,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B2">
-        <v>40890</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>30172</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B3">
-        <v>40890</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>30171</v>
-      </c>
-      <c r="J3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B4">
-        <v>40820</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>30159</v>
-      </c>
-      <c r="J4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B5">
-        <v>40820</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>30160</v>
-      </c>
-      <c r="J5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6">
-        <v>40230</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>30044</v>
-      </c>
-      <c r="J6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7">
-        <v>40230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>30045</v>
-      </c>
-      <c r="J7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8">
-        <v>40750</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>30146</v>
-      </c>
-      <c r="J8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9">
-        <v>40750</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>30145</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10">
-        <v>41280</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>30247</v>
-      </c>
-      <c r="J10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11">
-        <v>41280</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>30248</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B12">
-        <v>41330</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>30260</v>
-      </c>
-      <c r="J12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B13">
-        <v>41330</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>30259</v>
-      </c>
-      <c r="J13" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14">
-        <v>40550</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>30107</v>
-      </c>
-      <c r="J14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B15">
-        <v>40550</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>30108</v>
-      </c>
-      <c r="J15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16">
-        <v>41240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>30240</v>
-      </c>
-      <c r="J16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17">
-        <v>41240</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>30239</v>
-      </c>
-      <c r="J17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18">
-        <v>40060</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>30013</v>
-      </c>
-      <c r="J18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19">
-        <v>40060</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>30012</v>
-      </c>
-      <c r="J19" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B20">
-        <v>41020</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>30197</v>
-      </c>
-      <c r="J20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21">
-        <v>41020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>30198</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22">
-        <v>40570</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>30111</v>
-      </c>
-      <c r="J22" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23">
-        <v>40570</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>30112</v>
-      </c>
-      <c r="J23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>687</v>
-      </c>
-      <c r="B24">
-        <v>40670</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>30129</v>
-      </c>
-      <c r="J24" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>687</v>
-      </c>
-      <c r="B25">
-        <v>40670</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25">
-        <v>30130</v>
-      </c>
-      <c r="J25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26">
-        <v>40590</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>30116</v>
-      </c>
-      <c r="J26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27">
-        <v>40590</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>30115</v>
-      </c>
-      <c r="J27" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B28">
-        <v>40320</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>30062</v>
-      </c>
-      <c r="J28" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>292</v>
-      </c>
-      <c r="B29">
-        <v>40320</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>30063</v>
-      </c>
-      <c r="J29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30">
-        <v>41410</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30">
-        <v>30271</v>
-      </c>
-      <c r="J30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31">
-        <v>41410</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>30272</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>328</v>
-      </c>
-      <c r="B32">
-        <v>40490</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>30096</v>
-      </c>
-      <c r="J32" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B33">
-        <v>40490</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33">
-        <v>30095</v>
-      </c>
-      <c r="J33" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34">
-        <v>40380</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>30374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35">
-        <v>40380</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>30375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>667</v>
-      </c>
-      <c r="B36">
-        <v>40370</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36">
-        <v>30073</v>
-      </c>
-      <c r="J36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>667</v>
-      </c>
-      <c r="B37">
-        <v>40370</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>30072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>509</v>
-      </c>
-      <c r="B38">
-        <v>40790</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>30153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>509</v>
-      </c>
-      <c r="B39">
-        <v>40790</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>30154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>400</v>
-      </c>
-      <c r="B40">
-        <v>40070</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40">
-        <v>30014</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>400</v>
-      </c>
-      <c r="B41">
-        <v>40070</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>30015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>464</v>
-      </c>
-      <c r="B42">
-        <v>41340</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>30262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B43">
-        <v>41340</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>30261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44">
-        <v>40430</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>30085</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45">
-        <v>40430</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45">
-        <v>30084</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>662</v>
-      </c>
-      <c r="B46">
-        <v>40350</v>
-      </c>
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46">
-        <v>30069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>662</v>
-      </c>
-      <c r="B47">
-        <v>40350</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>30068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>597</v>
-      </c>
-      <c r="B48">
-        <v>40470</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48">
-        <v>30093</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>597</v>
-      </c>
-      <c r="B49">
-        <v>40470</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>30092</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>381</v>
-      </c>
-      <c r="B50">
-        <v>40810</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50">
-        <v>30157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>381</v>
-      </c>
-      <c r="B51">
-        <v>40810</v>
-      </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>30158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>687</v>
-      </c>
-      <c r="B52">
-        <v>40220</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>30042</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>687</v>
-      </c>
-      <c r="B53">
-        <v>40220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53">
-        <v>30043</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>434</v>
-      </c>
-      <c r="B54">
-        <v>40250</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54">
-        <v>30049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>434</v>
-      </c>
-      <c r="B55">
-        <v>40250</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>30048</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>576</v>
-      </c>
-      <c r="B56">
-        <v>40920</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56">
-        <v>30180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>576</v>
-      </c>
-      <c r="B57">
-        <v>40920</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>30179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58">
-        <v>40970</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58">
-        <v>30187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59">
-        <v>40970</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59">
-        <v>30188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60">
-        <v>40010</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61">
-        <v>40010</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>547</v>
-      </c>
-      <c r="B62">
-        <v>40180</v>
-      </c>
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62">
-        <v>30035</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>547</v>
-      </c>
-      <c r="B63">
-        <v>40180</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>30034</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64">
-        <v>40980</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>30189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65">
-        <v>40980</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65">
-        <v>30190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>297</v>
-      </c>
-      <c r="B66">
-        <v>40390</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66">
-        <v>30077</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67">
-        <v>40390</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67">
-        <v>30076</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D67">
-    <sortCondition ref="A2:A67" customList="O'Hare,Rosemont,Cumberland,Harlem-O,Jefferson Park,Montrose,Irving Park,Addison,Belmont,Logan Square,California,Western-O,Damen,Division,Chicago,Grand,Clark,Washington,Monroe,Jackson,Lasalle,Clinton,UIC-Halsted,Racine,Illinois Medi"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>